--- a/01_Input/00_CO Validation/Trinidad & Tobago - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Trinidad & Tobago - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_17A891D81675D87D65C4FD40FDCD662C781F2CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44662707-7480-4FA2-BFE2-23C9762479F5}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_17A891D81675D87D65C4FD40FDCD662C781F2CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4C8170-B1DA-479C-96E8-E07FF5D5C6A4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -477,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -565,12 +568,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -637,69 +697,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,6 +770,156 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E55A78-CC0D-479B-BC59-0746D0D8BAF3}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1075,339 +1239,363 @@
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="55.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="51.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" width="26.140625" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:19" ht="30.75">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="P1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="R1" s="51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="96" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="S1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="50" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="204.75" customHeight="1">
+      <c r="A2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52">
+      <c r="C2" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="83">
         <v>5152392</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9">
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19">
         <v>250</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27">
+      <c r="I2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="84">
         <v>0.4</v>
       </c>
-      <c r="L2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="O2" t="s">
+      <c r="L2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="78" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="5" t="s">
+      <c r="P2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19" ht="108" customHeight="1">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="19">
         <v>0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="19">
         <v>150</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="26"/>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="I3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="91.5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="P3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" ht="76.5">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="10">
+      <c r="F4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="26"/>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="I4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="P4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="158.25" customHeight="1">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>5</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="131.25" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="P5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="26"/>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="S5" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="144" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="79">
+        <v>651000</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="R5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="P6" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="1:19" ht="78.75" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="79">
+        <v>2</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="39" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="P7" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="25" customFormat="1" ht="155.25" customHeight="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
-        <v>651000</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="26"/>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="H8" s="28">
+        <v>22</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="31.5" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="26"/>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="34" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>22</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="P8" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:19" ht="91.5" customHeight="1">
-      <c r="A9" s="53">
+      <c r="A9" s="65">
         <v>110728</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="56">
+      <c r="C9" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="69">
         <v>2665440</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
+      <c r="E9" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -1416,68 +1604,72 @@
         <v>2400</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="37" customFormat="1" ht="60.75">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="28" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="M9" s="74"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19" s="27" customFormat="1" ht="60.75">
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="31">
+      <c r="F10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>0.108</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="42" t="s">
+      <c r="I10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="P10" t="s">
+      <c r="N10" s="56"/>
+      <c r="O10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="P10" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19" ht="76.5">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
+      <c r="A11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="59" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -1486,29 +1678,33 @@
         <v>36</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="26"/>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="76.5" hidden="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
+      <c r="P11" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" ht="76.5" hidden="1" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1517,91 +1713,100 @@
         <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="76.5" hidden="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
+      <c r="P12" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19" ht="76.5" hidden="1" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>100000</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="37" customFormat="1" ht="106.5">
-      <c r="A14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="38" t="s">
+      <c r="P13" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19" s="27" customFormat="1" ht="106.5">
+      <c r="A14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="B14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="38" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="30">
+      <c r="E14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="24">
         <v>0</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="24">
         <v>2</v>
       </c>
-      <c r="I14" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="I14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="8"/>
@@ -1625,18 +1830,6 @@
       <c r="C27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L2:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O16" xr:uid="{264DB59F-77FB-4279-822C-C68FBF87AB99}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
@@ -1713,44 +1906,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="321">
-      <c r="A2" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52">
+      <c r="C2" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="34">
         <v>5152392</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="152.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -1759,19 +1952,19 @@
         <v>150</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="91.5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -1780,19 +1973,19 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="259.5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="10">
         <v>3</v>
@@ -1801,40 +1994,40 @@
         <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="244.5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="137.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -1843,19 +2036,19 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="259.5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -1864,69 +2057,69 @@
         <v>22</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="91.5" customHeight="1">
-      <c r="A9" s="53">
+      <c r="A9" s="35">
         <v>110728</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="56">
+      <c r="C9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="38">
         <v>2665440</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="76.5">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -1935,19 +2128,19 @@
         <v>36</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1956,19 +2149,19 @@
         <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="16">
         <v>0</v>
@@ -1977,25 +2170,25 @@
         <v>100000</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="106.5">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -2004,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -2061,160 +2254,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="64" t="s">
-        <v>77</v>
+      <c r="A2" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="46"/>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="46"/>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="65" t="s">
-        <v>82</v>
+      <c r="A5" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="47"/>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="66" t="s">
-        <v>92</v>
+      <c r="A10" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="48"/>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67" t="s">
-        <v>97</v>
+      <c r="A12" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="67"/>
+      <c r="A13" s="49"/>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="49"/>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2229,8 +2422,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2254,6 +2467,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2329,6 +2543,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -2471,28 +2690,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA17AB7D-8A44-4DE8-A086-1999EF196A01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A004395-6E39-4F77-B900-4574E2DB0C85}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2500,5 +2699,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A004395-6E39-4F77-B900-4574E2DB0C85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777AFA6C-3D83-4A0B-B595-9ACE5A90247F}"/>
 </file>
--- a/01_Input/00_CO Validation/Trinidad & Tobago - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Trinidad & Tobago - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_17A891D81675D87D65C4FD40FDCD662C781F2CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4C8170-B1DA-479C-96E8-E07FF5D5C6A4}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_17A891D81675D87D65C4FD40FDCD662C781F2CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{932A4149-B890-4575-B245-5503C85AEDCB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
   <si>
     <t>Project ID</t>
   </si>
@@ -169,7 +172,7 @@
     <t xml:space="preserve">This indicator is on-track.  An analysis of existing tax systems was completed, and a draft fiscal incentive report was completed to promote energy-efficient technologies for the refrigeration and air-conditioning sectors. Stakeholder consultations are in process. </t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Energy Saved (MJ)</t>
   </si>
   <si>
     <t>(GEF Core Indicator 6.3):
@@ -209,9 +212,6 @@
     <t>108 kW of solar PV was added from a total of 12 installations</t>
   </si>
   <si>
-    <t>to the CO: Please estimate the number of MW.</t>
-  </si>
-  <si>
     <t>Close the gap on energy access</t>
   </si>
   <si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Improving community climate resilience in Matelot by implementing green solutions to address its electricity, water and food limitations.</t>
-  </si>
-  <si>
-    <t>26,000USD</t>
   </si>
   <si>
     <t>No. of activities supported by installation</t>
@@ -259,6 +256,9 @@
 Women: 100 (40%)</t>
   </si>
   <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
     <t>(GEF Core Indicator 6.2):
 Number of GHG emissions avoided over the investment period of the project (direct).</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>80-180</t>
+  </si>
+  <si>
+    <t>26,000USD</t>
   </si>
   <si>
     <t>Tier</t>
@@ -630,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -701,9 +704,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -711,51 +711,198 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,156 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1229,7 +1226,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,78 +1246,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="204.75" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="58">
         <v>5152392</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="62" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -1335,31 +1332,31 @@
       <c r="I2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="84">
+      <c r="J2" s="31"/>
+      <c r="K2" s="59">
         <v>0.4</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" spans="1:19" ht="108" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="87" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="62" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -1374,27 +1371,27 @@
       <c r="I3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
     </row>
     <row r="4" spans="1:19" ht="76.5">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="87" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="62" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -1409,31 +1406,31 @@
       <c r="I4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52" t="s">
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="158.25" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="87" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="62" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -1448,150 +1445,150 @@
       <c r="I5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="144" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="87" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="54" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="19">
         <v>0</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="54">
         <v>651000</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="87" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="54" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="54">
         <v>2</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="25" customFormat="1" ht="155.25" customHeight="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="88" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="28">
-        <v>22</v>
-      </c>
-      <c r="I8" s="81" t="s">
+      <c r="H8" s="27">
+        <v>3600000</v>
+      </c>
+      <c r="I8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="75" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="52" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
     </row>
     <row r="9" spans="1:19" ht="91.5" customHeight="1">
-      <c r="A9" s="65">
+      <c r="A9" s="41">
         <v>110728</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="45">
         <v>2665440</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="36" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1606,70 +1603,68 @@
       <c r="I9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="77" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52" t="s">
+      <c r="M9" s="49"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-    </row>
-    <row r="10" spans="1:19" s="27" customFormat="1" ht="60.75">
-      <c r="A10" s="65"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="60" t="s">
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+    </row>
+    <row r="10" spans="1:19" s="26" customFormat="1" ht="60.75">
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="9">
         <v>0.108</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="75" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="56"/>
-      <c r="O10" s="52" t="s">
+      <c r="P10" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+    </row>
+    <row r="11" spans="1:19" ht="76.5">
+      <c r="A11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="1:19" ht="76.5">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -1678,33 +1673,33 @@
         <v>36</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="76.5" hidden="1" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1713,33 +1708,33 @@
         <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="76.5" hidden="1" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -1748,39 +1743,37 @@
         <v>100000</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" s="26" customFormat="1" ht="106.5">
+      <c r="A14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-    </row>
-    <row r="14" spans="1:19" s="27" customFormat="1" ht="106.5">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="77">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="G14" s="24">
         <v>0</v>
@@ -1788,25 +1781,25 @@
       <c r="H14" s="24">
         <v>2</v>
       </c>
-      <c r="I14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="54" t="s">
+      <c r="I14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="52" t="s">
+      <c r="N14" s="34"/>
+      <c r="O14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="8"/>
@@ -1906,16 +1899,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="321">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="84">
         <v>5152392</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1928,17 +1921,17 @@
         <v>24</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="152.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1956,10 +1949,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="91.5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1977,10 +1970,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="259.5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1998,31 +1991,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="244.5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="137.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
@@ -2040,12 +2033,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="259.5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>44</v>
@@ -2061,16 +2054,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="91.5" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="86">
         <v>110728</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="92">
         <v>2665440</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -2083,17 +2076,17 @@
         <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
@@ -2104,22 +2097,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="76.5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -2128,19 +2121,19 @@
         <v>36</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -2149,19 +2142,19 @@
         <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="76.5">
+      <c r="A13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="G13" s="16">
         <v>0</v>
@@ -2170,25 +2163,25 @@
         <v>100000</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="106.5">
       <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
@@ -2197,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -2264,7 +2257,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="94" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
@@ -2275,7 +2268,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="94"/>
       <c r="B3" t="s">
         <v>53</v>
       </c>
@@ -2284,7 +2277,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="94"/>
       <c r="B4" t="s">
         <v>81</v>
       </c>
@@ -2293,7 +2286,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="95" t="s">
         <v>83</v>
       </c>
       <c r="B5" t="s">
@@ -2304,7 +2297,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="95"/>
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -2313,7 +2306,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="95"/>
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -2322,7 +2315,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="95"/>
       <c r="B8" t="s">
         <v>90</v>
       </c>
@@ -2331,16 +2324,16 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="95"/>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="96" t="s">
         <v>93</v>
       </c>
       <c r="B10" t="s">
@@ -2351,7 +2344,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="96"/>
       <c r="B11" t="s">
         <v>96</v>
       </c>
@@ -2360,7 +2353,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="97" t="s">
         <v>98</v>
       </c>
       <c r="B12" t="s">
@@ -2371,7 +2364,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="97"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -2380,9 +2373,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="97"/>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>101</v>
@@ -2433,15 +2426,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2690,14 +2674,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A004395-6E39-4F77-B900-4574E2DB0C85}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7AC1A98-C21D-4D7B-9D3E-59462D5655A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777AFA6C-3D83-4A0B-B595-9ACE5A90247F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777AFA6C-3D83-4A0B-B595-9ACE5A90247F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7AC1A98-C21D-4D7B-9D3E-59462D5655A1}"/>
 </file>
--- a/01_Input/00_CO Validation/Trinidad & Tobago - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Trinidad & Tobago - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="275" documentId="11_17A891D81675D87D65C4FD40FDCD662C781F2CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B070E12-30FB-475B-B3CD-8B84907C6F1E}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="11_17A891D81675D87D65C4FD40FDCD662C781F2CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62870971-DC9A-4C94-9C43-B2D36869E8BD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
   <si>
     <t>Project ID</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Policy Population</t>
   </si>
   <si>
-    <t>5957/ 117647</t>
+    <t>5957, 117647</t>
   </si>
   <si>
     <t>Energy Efficiency through the Development of Low-carbon RAC Technologies in Trinidad and Tobago</t>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">This projects aims to install a solar system at the Matelot Police Youth Club to address the electricity shortages in the area. The system will support the club's computer lab and hydroponics systems. </t>
+  </si>
+  <si>
+    <t>5957/ 117647</t>
   </si>
   <si>
     <t>Capacity Training</t>
@@ -869,6 +872,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,9 +922,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1237,7 +1240,7 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1339,7 +1342,7 @@
       <c r="D2" s="54">
         <v>5152392</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="82" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -1393,7 +1396,7 @@
       <c r="B3" s="61"/>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="82" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -1443,7 +1446,7 @@
       <c r="B4" s="61"/>
       <c r="C4" s="66"/>
       <c r="D4" s="63"/>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -1507,7 +1510,7 @@
       <c r="B5" s="61"/>
       <c r="C5" s="66"/>
       <c r="D5" s="63"/>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -1621,7 +1624,7 @@
       <c r="B7" s="61"/>
       <c r="C7" s="66"/>
       <c r="D7" s="63"/>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="82" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="50" t="s">
@@ -1685,7 +1688,7 @@
       <c r="B8" s="62"/>
       <c r="C8" s="67"/>
       <c r="D8" s="64"/>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="82" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="51" t="s">
@@ -1734,7 +1737,7 @@
     </row>
     <row r="9" spans="1:32" ht="91.5" customHeight="1">
       <c r="A9" s="37">
-        <v>110728</v>
+        <v>112038</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>54</v>
@@ -1745,7 +1748,7 @@
       <c r="D9" s="41">
         <v>2665440</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="82" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1797,7 +1800,7 @@
       <c r="B10" s="39"/>
       <c r="C10" s="42"/>
       <c r="D10" s="41"/>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="82" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1847,7 +1850,7 @@
       <c r="B11" s="40"/>
       <c r="C11" s="43"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="82" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1897,7 +1900,7 @@
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="98"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="25"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="98"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1999,7 +2002,7 @@
       <c r="D14" s="71">
         <v>26000</v>
       </c>
-      <c r="E14" s="98"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="24" t="s">
         <v>71</v>
       </c>
@@ -2175,20 +2178,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="321">
-      <c r="A2" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="89">
         <v>5152392</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
@@ -2197,19 +2200,19 @@
         <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="152.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="88"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>32</v>
@@ -2225,10 +2228,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="91.5">
-      <c r="A4" s="82"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="88"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2246,10 +2249,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="259.5">
-      <c r="A5" s="82"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="88"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2267,31 +2270,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="244.5">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="88"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="137.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="88"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2309,12 +2312,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="259.5">
-      <c r="A8" s="83"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="89"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>51</v>
@@ -2330,16 +2333,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="91.5" customHeight="1">
-      <c r="A9" s="90">
+      <c r="A9" s="91">
         <v>110728</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="97">
         <v>2665440</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2352,17 +2355,17 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60.75">
-      <c r="A10" s="90"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="96"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
@@ -2373,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="76.5">
-      <c r="A11" s="90"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="96"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>63</v>
@@ -2401,10 +2404,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="90"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="96"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2422,12 +2425,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="91"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="97"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>67</v>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>56</v>
@@ -2534,7 +2537,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2542,63 +2545,63 @@
         <v>59</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="99" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="99" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="99" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
@@ -2606,47 +2609,47 @@
         <v>50</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
@@ -2654,31 +2657,31 @@
         <v>24</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -2686,15 +2689,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2712,8 +2715,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2738,6 +2752,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2817,6 +2832,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2960,25 +2980,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7AC1A98-C21D-4D7B-9D3E-59462D5655A1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777AFA6C-3D83-4A0B-B595-9ACE5A90247F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A004395-6E39-4F77-B900-4574E2DB0C85}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A004395-6E39-4F77-B900-4574E2DB0C85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DC77E2-72A3-4783-AE1C-D17056907EA9}"/>
 </file>